--- a/data/trans_orig/P14A32-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P14A32-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9331F705-A3DF-443D-84A3-09636D325F3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{69DA0DCA-F753-4EAB-A7AB-0E0E9F4BC172}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{DAC96F1B-B09D-4208-8993-50ED388E65D7}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{50D15C51-FDE3-45E1-8AAB-8B445C1851B3}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -120,7 +120,7 @@
     <t>39,42%</t>
   </si>
   <si>
-    <t>80,7%</t>
+    <t>80,79%</t>
   </si>
   <si>
     <t>49,91%</t>
@@ -132,7 +132,7 @@
     <t>60,58%</t>
   </si>
   <si>
-    <t>19,3%</t>
+    <t>19,21%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -147,16 +147,16 @@
     <t>9,88%</t>
   </si>
   <si>
-    <t>69,24%</t>
+    <t>61,62%</t>
   </si>
   <si>
     <t>33,54%</t>
   </si>
   <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>65,89%</t>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>66,56%</t>
   </si>
   <si>
     <t>50,42%</t>
@@ -165,7 +165,7 @@
     <t>69,68%</t>
   </si>
   <si>
-    <t>30,76%</t>
+    <t>38,38%</t>
   </si>
   <si>
     <t>90,12%</t>
@@ -174,10 +174,10 @@
     <t>66,46%</t>
   </si>
   <si>
-    <t>34,11%</t>
-  </si>
-  <si>
-    <t>91,65%</t>
+    <t>33,44%</t>
+  </si>
+  <si>
+    <t>91,4%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -186,10 +186,10 @@
     <t>58,84%</t>
   </si>
   <si>
-    <t>30,02%</t>
-  </si>
-  <si>
-    <t>81,18%</t>
+    <t>30,18%</t>
+  </si>
+  <si>
+    <t>82,16%</t>
   </si>
   <si>
     <t>35,2%</t>
@@ -204,19 +204,19 @@
     <t>42,06%</t>
   </si>
   <si>
-    <t>28,05%</t>
-  </si>
-  <si>
-    <t>55,6%</t>
+    <t>29,7%</t>
+  </si>
+  <si>
+    <t>56,67%</t>
   </si>
   <si>
     <t>41,16%</t>
   </si>
   <si>
-    <t>18,82%</t>
-  </si>
-  <si>
-    <t>69,98%</t>
+    <t>17,84%</t>
+  </si>
+  <si>
+    <t>69,82%</t>
   </si>
   <si>
     <t>64,8%</t>
@@ -231,64 +231,64 @@
     <t>57,94%</t>
   </si>
   <si>
-    <t>44,4%</t>
-  </si>
-  <si>
-    <t>71,95%</t>
+    <t>43,33%</t>
+  </si>
+  <si>
+    <t>70,3%</t>
   </si>
   <si>
     <t>60,95%</t>
   </si>
   <si>
-    <t>36,99%</t>
-  </si>
-  <si>
-    <t>79,55%</t>
+    <t>36,92%</t>
+  </si>
+  <si>
+    <t>80,14%</t>
   </si>
   <si>
     <t>36,34%</t>
   </si>
   <si>
-    <t>23,9%</t>
-  </si>
-  <si>
-    <t>49,83%</t>
+    <t>24,23%</t>
+  </si>
+  <si>
+    <t>50,78%</t>
   </si>
   <si>
     <t>43,46%</t>
   </si>
   <si>
-    <t>31,73%</t>
-  </si>
-  <si>
-    <t>55,15%</t>
+    <t>31,75%</t>
+  </si>
+  <si>
+    <t>54,49%</t>
   </si>
   <si>
     <t>39,05%</t>
   </si>
   <si>
-    <t>20,45%</t>
-  </si>
-  <si>
-    <t>63,01%</t>
+    <t>19,86%</t>
+  </si>
+  <si>
+    <t>63,08%</t>
   </si>
   <si>
     <t>63,66%</t>
   </si>
   <si>
-    <t>50,17%</t>
-  </si>
-  <si>
-    <t>76,1%</t>
+    <t>49,22%</t>
+  </si>
+  <si>
+    <t>75,77%</t>
   </si>
   <si>
     <t>56,54%</t>
   </si>
   <si>
-    <t>44,85%</t>
-  </si>
-  <si>
-    <t>68,27%</t>
+    <t>45,51%</t>
+  </si>
+  <si>
+    <t>68,25%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -360,109 +360,109 @@
     <t>64,82%</t>
   </si>
   <si>
-    <t>39,97%</t>
-  </si>
-  <si>
-    <t>83,95%</t>
+    <t>41,85%</t>
+  </si>
+  <si>
+    <t>87,82%</t>
   </si>
   <si>
     <t>49,6%</t>
   </si>
   <si>
-    <t>32,09%</t>
-  </si>
-  <si>
-    <t>68,6%</t>
+    <t>31,44%</t>
+  </si>
+  <si>
+    <t>68,37%</t>
   </si>
   <si>
     <t>54,24%</t>
   </si>
   <si>
-    <t>38,86%</t>
-  </si>
-  <si>
-    <t>67,33%</t>
+    <t>38,76%</t>
+  </si>
+  <si>
+    <t>68,78%</t>
   </si>
   <si>
     <t>35,18%</t>
   </si>
   <si>
-    <t>16,05%</t>
-  </si>
-  <si>
-    <t>60,03%</t>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>58,15%</t>
   </si>
   <si>
     <t>50,4%</t>
   </si>
   <si>
-    <t>31,4%</t>
-  </si>
-  <si>
-    <t>67,91%</t>
+    <t>31,63%</t>
+  </si>
+  <si>
+    <t>68,56%</t>
   </si>
   <si>
     <t>45,76%</t>
   </si>
   <si>
-    <t>32,67%</t>
-  </si>
-  <si>
-    <t>61,14%</t>
+    <t>31,22%</t>
+  </si>
+  <si>
+    <t>61,24%</t>
   </si>
   <si>
     <t>62,51%</t>
   </si>
   <si>
-    <t>40,33%</t>
-  </si>
-  <si>
-    <t>83,39%</t>
+    <t>39,98%</t>
+  </si>
+  <si>
+    <t>83,73%</t>
   </si>
   <si>
     <t>46,62%</t>
   </si>
   <si>
-    <t>32,69%</t>
-  </si>
-  <si>
-    <t>62,41%</t>
+    <t>30,67%</t>
+  </si>
+  <si>
+    <t>60,07%</t>
   </si>
   <si>
     <t>50,66%</t>
   </si>
   <si>
-    <t>38,25%</t>
-  </si>
-  <si>
-    <t>63,84%</t>
+    <t>38,69%</t>
+  </si>
+  <si>
+    <t>63,78%</t>
   </si>
   <si>
     <t>37,49%</t>
   </si>
   <si>
-    <t>16,61%</t>
-  </si>
-  <si>
-    <t>59,67%</t>
+    <t>16,27%</t>
+  </si>
+  <si>
+    <t>60,02%</t>
   </si>
   <si>
     <t>53,38%</t>
   </si>
   <si>
-    <t>37,59%</t>
-  </si>
-  <si>
-    <t>67,31%</t>
+    <t>39,93%</t>
+  </si>
+  <si>
+    <t>69,33%</t>
   </si>
   <si>
     <t>49,34%</t>
   </si>
   <si>
-    <t>36,16%</t>
-  </si>
-  <si>
-    <t>61,75%</t>
+    <t>36,22%</t>
+  </si>
+  <si>
+    <t>61,31%</t>
   </si>
 </sst>
 </file>
@@ -874,7 +874,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A5DB646-B109-43E2-AA90-AB3DE6B17B68}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAB994D3-5D31-45CC-9A63-0569F532224C}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2057,7 +2057,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12973DD8-E64D-414D-BB90-6E7CEAB0AC93}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48AB9157-21B9-49A7-972F-69E714AC8894}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/data/trans_orig/P14A32-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P14A32-Edad-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{69DA0DCA-F753-4EAB-A7AB-0E0E9F4BC172}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E8090DFA-292F-40DF-AFA8-A6CBC7197C35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{50D15C51-FDE3-45E1-8AAB-8B445C1851B3}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{8887AA5C-4D65-4A09-A752-486AB99B0BC9}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -120,7 +120,7 @@
     <t>39,42%</t>
   </si>
   <si>
-    <t>80,79%</t>
+    <t>80,74%</t>
   </si>
   <si>
     <t>49,91%</t>
@@ -132,7 +132,7 @@
     <t>60,58%</t>
   </si>
   <si>
-    <t>19,21%</t>
+    <t>19,26%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -144,19 +144,16 @@
     <t>30,32%</t>
   </si>
   <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>61,62%</t>
+    <t>61,04%</t>
   </si>
   <si>
     <t>33,54%</t>
   </si>
   <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>66,56%</t>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>66,65%</t>
   </si>
   <si>
     <t>50,42%</t>
@@ -165,19 +162,16 @@
     <t>69,68%</t>
   </si>
   <si>
-    <t>38,38%</t>
-  </si>
-  <si>
-    <t>90,12%</t>
+    <t>38,96%</t>
   </si>
   <si>
     <t>66,46%</t>
   </si>
   <si>
-    <t>33,44%</t>
-  </si>
-  <si>
-    <t>91,4%</t>
+    <t>33,35%</t>
+  </si>
+  <si>
+    <t>91,54%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -186,73 +180,73 @@
     <t>58,84%</t>
   </si>
   <si>
-    <t>30,18%</t>
-  </si>
-  <si>
-    <t>82,16%</t>
+    <t>30,76%</t>
+  </si>
+  <si>
+    <t>84,43%</t>
   </si>
   <si>
     <t>35,2%</t>
   </si>
   <si>
-    <t>20,79%</t>
-  </si>
-  <si>
-    <t>50,77%</t>
+    <t>20,29%</t>
+  </si>
+  <si>
+    <t>51,01%</t>
   </si>
   <si>
     <t>42,06%</t>
   </si>
   <si>
-    <t>29,7%</t>
-  </si>
-  <si>
-    <t>56,67%</t>
+    <t>27,86%</t>
+  </si>
+  <si>
+    <t>56,3%</t>
   </si>
   <si>
     <t>41,16%</t>
   </si>
   <si>
-    <t>17,84%</t>
-  </si>
-  <si>
-    <t>69,82%</t>
+    <t>15,57%</t>
+  </si>
+  <si>
+    <t>69,24%</t>
   </si>
   <si>
     <t>64,8%</t>
   </si>
   <si>
-    <t>49,23%</t>
-  </si>
-  <si>
-    <t>79,21%</t>
+    <t>48,99%</t>
+  </si>
+  <si>
+    <t>79,71%</t>
   </si>
   <si>
     <t>57,94%</t>
   </si>
   <si>
-    <t>43,33%</t>
-  </si>
-  <si>
-    <t>70,3%</t>
+    <t>43,7%</t>
+  </si>
+  <si>
+    <t>72,14%</t>
   </si>
   <si>
     <t>60,95%</t>
   </si>
   <si>
-    <t>36,92%</t>
-  </si>
-  <si>
-    <t>80,14%</t>
+    <t>36,6%</t>
+  </si>
+  <si>
+    <t>80,25%</t>
   </si>
   <si>
     <t>36,34%</t>
   </si>
   <si>
-    <t>24,23%</t>
-  </si>
-  <si>
-    <t>50,78%</t>
+    <t>23,44%</t>
+  </si>
+  <si>
+    <t>49,84%</t>
   </si>
   <si>
     <t>43,46%</t>
@@ -261,31 +255,31 @@
     <t>31,75%</t>
   </si>
   <si>
-    <t>54,49%</t>
+    <t>54,79%</t>
   </si>
   <si>
     <t>39,05%</t>
   </si>
   <si>
-    <t>19,86%</t>
-  </si>
-  <si>
-    <t>63,08%</t>
+    <t>19,75%</t>
+  </si>
+  <si>
+    <t>63,4%</t>
   </si>
   <si>
     <t>63,66%</t>
   </si>
   <si>
-    <t>49,22%</t>
-  </si>
-  <si>
-    <t>75,77%</t>
+    <t>50,16%</t>
+  </si>
+  <si>
+    <t>76,56%</t>
   </si>
   <si>
     <t>56,54%</t>
   </si>
   <si>
-    <t>45,51%</t>
+    <t>45,21%</t>
   </si>
   <si>
     <t>68,25%</t>
@@ -294,7 +288,7 @@
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población que recibe medicación o terapia por incontinencia urinaria en 2015 (Tasa respuesta: 0,96%)</t>
+    <t>Población que recibe medicación o terapia por incontinencia urinaria en 2016 (Tasa respuesta: 0,96%)</t>
   </si>
   <si>
     <t>35,9%</t>
@@ -312,6 +306,9 @@
     <t>59,9%</t>
   </si>
   <si>
+    <t>18,77%</t>
+  </si>
+  <si>
     <t>77,15%</t>
   </si>
   <si>
@@ -321,148 +318,151 @@
     <t>40,1%</t>
   </si>
   <si>
+    <t>81,23%</t>
+  </si>
+  <si>
     <t>36,69%</t>
   </si>
   <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>74,45%</t>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>75,29%</t>
   </si>
   <si>
     <t>32,6%</t>
   </si>
   <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>66,31%</t>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>66,94%</t>
   </si>
   <si>
     <t>63,31%</t>
   </si>
   <si>
-    <t>25,55%</t>
-  </si>
-  <si>
-    <t>88,24%</t>
+    <t>24,71%</t>
+  </si>
+  <si>
+    <t>88,56%</t>
   </si>
   <si>
     <t>67,4%</t>
   </si>
   <si>
-    <t>33,69%</t>
-  </si>
-  <si>
-    <t>89,95%</t>
+    <t>33,06%</t>
+  </si>
+  <si>
+    <t>89,93%</t>
   </si>
   <si>
     <t>64,82%</t>
   </si>
   <si>
-    <t>41,85%</t>
-  </si>
-  <si>
-    <t>87,82%</t>
+    <t>41,27%</t>
+  </si>
+  <si>
+    <t>87,83%</t>
   </si>
   <si>
     <t>49,6%</t>
   </si>
   <si>
-    <t>31,44%</t>
-  </si>
-  <si>
-    <t>68,37%</t>
+    <t>30,94%</t>
+  </si>
+  <si>
+    <t>67,41%</t>
   </si>
   <si>
     <t>54,24%</t>
   </si>
   <si>
-    <t>38,76%</t>
-  </si>
-  <si>
-    <t>68,78%</t>
+    <t>40,41%</t>
+  </si>
+  <si>
+    <t>69,39%</t>
   </si>
   <si>
     <t>35,18%</t>
   </si>
   <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>58,15%</t>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>58,73%</t>
   </si>
   <si>
     <t>50,4%</t>
   </si>
   <si>
-    <t>31,63%</t>
-  </si>
-  <si>
-    <t>68,56%</t>
+    <t>32,59%</t>
+  </si>
+  <si>
+    <t>69,06%</t>
   </si>
   <si>
     <t>45,76%</t>
   </si>
   <si>
-    <t>31,22%</t>
-  </si>
-  <si>
-    <t>61,24%</t>
+    <t>30,61%</t>
+  </si>
+  <si>
+    <t>59,59%</t>
   </si>
   <si>
     <t>62,51%</t>
   </si>
   <si>
-    <t>39,98%</t>
-  </si>
-  <si>
-    <t>83,73%</t>
+    <t>40,77%</t>
+  </si>
+  <si>
+    <t>83,56%</t>
   </si>
   <si>
     <t>46,62%</t>
   </si>
   <si>
-    <t>30,67%</t>
-  </si>
-  <si>
-    <t>60,07%</t>
+    <t>32,13%</t>
+  </si>
+  <si>
+    <t>60,79%</t>
   </si>
   <si>
     <t>50,66%</t>
   </si>
   <si>
-    <t>38,69%</t>
-  </si>
-  <si>
-    <t>63,78%</t>
+    <t>38,97%</t>
+  </si>
+  <si>
+    <t>64,61%</t>
   </si>
   <si>
     <t>37,49%</t>
   </si>
   <si>
-    <t>16,27%</t>
-  </si>
-  <si>
-    <t>60,02%</t>
+    <t>16,44%</t>
+  </si>
+  <si>
+    <t>59,23%</t>
   </si>
   <si>
     <t>53,38%</t>
   </si>
   <si>
-    <t>39,93%</t>
-  </si>
-  <si>
-    <t>69,33%</t>
+    <t>39,21%</t>
+  </si>
+  <si>
+    <t>67,87%</t>
   </si>
   <si>
     <t>49,34%</t>
   </si>
   <si>
-    <t>36,22%</t>
-  </si>
-  <si>
-    <t>61,31%</t>
+    <t>35,39%</t>
+  </si>
+  <si>
+    <t>61,03%</t>
   </si>
 </sst>
 </file>
@@ -874,7 +874,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAB994D3-5D31-45CC-9A63-0569F532224C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C071E5C-EB88-4F2B-A50C-A2F883633B65}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1600,10 +1600,10 @@
         <v>34</v>
       </c>
       <c r="K16" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>36</v>
       </c>
       <c r="M16" s="7">
         <v>4</v>
@@ -1612,13 +1612,13 @@
         <v>4165</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1633,7 +1633,7 @@
         <v>1048</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>19</v>
@@ -1648,13 +1648,13 @@
         <v>7203</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="K17" s="7" t="s">
-        <v>42</v>
-      </c>
       <c r="L17" s="7" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="M17" s="7">
         <v>8</v>
@@ -1663,13 +1663,13 @@
         <v>8250</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1725,7 +1725,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -1737,13 +1737,13 @@
         <v>9705</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>48</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>50</v>
       </c>
       <c r="H19" s="7">
         <v>13</v>
@@ -1752,13 +1752,13 @@
         <v>14194</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="M19" s="7">
         <v>20</v>
@@ -1767,13 +1767,13 @@
         <v>23898</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1788,13 +1788,13 @@
         <v>6788</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>59</v>
       </c>
       <c r="H20" s="7">
         <v>23</v>
@@ -1803,13 +1803,13 @@
         <v>26129</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="M20" s="7">
         <v>30</v>
@@ -1818,13 +1818,13 @@
         <v>32917</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1892,13 +1892,13 @@
         <v>13810</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>68</v>
       </c>
       <c r="H22" s="7">
         <v>19</v>
@@ -1907,13 +1907,13 @@
         <v>20240</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>71</v>
       </c>
       <c r="M22" s="7">
         <v>30</v>
@@ -1922,13 +1922,13 @@
         <v>34049</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1943,13 +1943,13 @@
         <v>8847</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>77</v>
       </c>
       <c r="H23" s="7">
         <v>32</v>
@@ -1958,13 +1958,13 @@
         <v>35458</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="M23" s="7">
         <v>41</v>
@@ -1973,13 +1973,13 @@
         <v>44306</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2035,7 +2035,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -2057,7 +2057,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48AB9157-21B9-49A7-972F-69E714AC8894}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8B5FFDB-35C7-4921-9954-3D29ADF9E2F2}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2074,7 +2074,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2468,7 +2468,7 @@
         <v>1040</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>19</v>
@@ -2483,7 +2483,7 @@
         <v>1040</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>19</v>
@@ -2517,7 +2517,7 @@
         <v>1858</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>19</v>
@@ -2532,7 +2532,7 @@
         <v>1858</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>19</v>
@@ -2607,7 +2607,7 @@
         <v>15</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>17</v>
@@ -2619,7 +2619,7 @@
         <v>2067</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>19</v>
@@ -2634,10 +2634,10 @@
         <v>3014</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>19</v>
+        <v>89</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>15</v>
@@ -2661,7 +2661,7 @@
         <v>20</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H14" s="7">
         <v>2</v>
@@ -2670,7 +2670,7 @@
         <v>2018</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>19</v>
@@ -2685,13 +2685,13 @@
         <v>2018</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>19</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>15</v>
+        <v>93</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2765,7 +2765,7 @@
         <v>20</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H16" s="7">
         <v>3</v>
@@ -2813,7 +2813,7 @@
         <v>15</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>17</v>
@@ -2902,7 +2902,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3212,7 +3212,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
